--- a/finetuning/it_datasets/qa_dataset/qa_it_siliana_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_siliana_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -663,15 +668,57 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great place to eat, check out SAM'S FOOD located at 39MC+RP5. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.6, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/SAM%27S+FOOD/data=!4m7!3m6!1s0x12fc65894c0c4bf1:0x7da64569989c9b91!8m2!3d36.0845055!4d9.3718564!16s%2Fg%2F11kmcrjrrb!19sChIJ8UsMTIll_BIRkZucmGlFpn0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 943 256.</t>
+          <t>SAM'S FOOD is a highly-rated restaurant in Siliana known for its delicious cuisine and friendly service. With a rating of 4.6 out of 5, this establishment has received positive reviews from its patrons, making it a must-visit spot for food lovers.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant named SAM'S FOOD with a perfect location for Restaurant lovers in Siliana?</t>
+          <t>Day Plan:
+Morning: Visit Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating, for a spiritual experience.
+Mid-Morning: Head to Brooklyn Cooffe for a cozy atmosphere, a cup of coffee, and a tasty pastry.
+Midday: Try local cuisine at SAM'S FOOD, a highly-rated restaurant known for its delicious cuisine and friendly service.
+Afternoon: Take a guided tour of Barrage Siliana, a reservoir offering stunning views of the surrounding area.
+Evening: Engage in outdoor activities like fishing at Barrage Siliana.
+Night: Relax with a drink and enjoy the scenic views at Barrage Siliana.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a highly-rated restaurant in Siliana known for its delicious cuisine and friendly service. With a rating of 4.6 out of 5, this establishment has received positive reviews from its patrons, making it a must-visit spot for food lovers.
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Located in the heart of Siliana, Palm Coffe is a cozy cafe offering a warm and welcoming atmosphere. Our menu features a tantalizing selection of coffee, tea, pastries, and snacks to cater to every taste. Situated at the coordinates (36.0845203, 9.3708318), Palm Coffe is the perfect spot to relax, refuel, and connect with friends and family.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -773,14 +820,58 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Brooklyn Cooffe located at 39P8+35J Brooklyn Cooffe, Siliana. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, call them at 98 205 001.</t>
+          <t>**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Salon de the experience with a variety of Cafe options, located in Siliana?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Oued Siliana, marveling at its natural beauty and enjoying the tranquility it offers.
+Mid-Morning: Try local cuisine at Pavarotti Pizza, savoring the delicious pizzas and other Italian dishes they offer.
+Midday: Visit the Barrage Siliana, appreciating the peaceful ambiance and breathtaking views of the dam.
+Afternoon: Relax with a cup of coffee or tea at Brooklyn Cooffe, immersing in the cozy ambiance while enjoying expertly brewed beverages.
+Evening: Take a guided tour of Mosquee Fatima Zahra, admiring its architectural beauty and learning about its religious significance.
+Night: Engage in traditional cultural immersion at the Spiritualist Center of Siliana, experiencing its unique ambiance and gaining insights into local beliefs.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavarotti Pizza is a restaurant located in Siliana, Tunisia. It is open from 10:00 AM to midnight, every day except Sunday. The restaurant offers a variety of pizzas, as well as other Italian dishes. Pavarotti Pizza has a 4.3-star rating on Google, with customers praising the delicious food and friendly service. It is located at Rue Ahmed Ibn Abi Dhiaf and can be contacted at 22 365 444.
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Cafe Panorama is a cafe located in Siliana, Tunisia. It has a rating of 4.0 out of 5 stars on Google and is open from 5:30 AM to midnight. Cafe Panorama is known for its great coffee and friendly staff.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -878,12 +969,56 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great cafe, check out Daily Dose located at 39M3+PJ4 Daily Dose, Siliana. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>Daily Dose is a cafe located in Siliana, Tunisia (36.0845203, 9.3708318) with a 5.0 rating based on 3 reviews.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a 5.0 rating in Siliana, perfect for Cafe lovers offering a range of Cafe options?</t>
+          <t>Day Plan:
+Morning: Explore Barrage Siliana, a serene dam with picturesque views. Take a leisurely walk along its banks, soak up the tranquility, and capture the beauty of the surroundings.
+Mid-Morning: Visit the highly-rated 3AM TAWFIK restaurant for a culinary adventure. Savor the diverse menu featuring crepes, sandwiches, pizzas, and delectable desserts.
+Midday: Immerse yourself in the majestic Oued Siliana river. Engage in refreshing activities like swimming, fishing, or boating. Enjoy a serene picnic amidst the tranquil ambiance and picturesque landscapes.
+Afternoon: Explore Mosquée Fatima Zahra, a highly-rated mosque with architectural beauty and spiritual significance. Take a guided tour, learn about its history, and admire its intricate details.
+Evening: Head to TAHA Coffee, a specialized espresso bar, for a delightful caffeine fix. Relish the expertly crafted espresso-based drinks and unwind in the cozy atmosphere.
+Night: Experience the vibrant local culture at Cafe classico. Indulge in aromatic coffee, delectable pastries, and sandwiches while engaging with the friendly staff and soaking up the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+3AM TAWFIK is a highly-rated restaurant located in Siliana, Tunisia. It is known for its diverse menu, which includes a range of cuisines from crepes and sandwiches to pizzas and desserts. With a 5.0 rating and positive reviews, it is a popular destination for both locals and tourists alike. Situated at (36.0845203, 9.3708318), it is easily accessible and open from 10:00 AM to midnight.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe classico is a cafe located in Rue Habib Thameur, Siliana. It is a popular spot for locals and tourists alike, offering a variety of coffee drinks, pastries, and sandwiches. The cafe is also known for its friendly staff and cozy atmosphere.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -981,14 +1116,57 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great Cafe, check out Cafe Panorama located at 39P8+22C Cafe Panorama, P4, Siliana. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-00:00, but closed on []. To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>Cafe Panorama is a cafe located in Siliana, Tunisia. It has a rating of 4.0 out of 5 stars on Google and is open from 5:30 AM to midnight. Cafe Panorama is known for its great coffee and friendly staff.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in Siliana that's open late and known for its wide selection of Cafe?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the serene Barrage Siliana, a picturesque dam surrounded by verdant landscapes. Soak in the tranquility and capture stunning photos of the sparkling waters.
+Mid-Morning: Visit Brooklyn Cooffe, a cozy cafe known for its aromatic coffee and pastries. Enjoy a leisurely breakfast while savoring the warm ambiance and friendly service.
+Midday: Try local cuisine at Ridha lablebi, a highly-rated restaurant specializing in traditional Tunisian dishes. Indulge in a delicious and authentic culinary experience, focusing on the flavorful lablebi.
+Afternoon: Engage in outdoor activities at the Oued Siliana, a picturesque river offering swimming, fishing, and boating. Spend a relaxing afternoon amidst nature, enjoying the fresh air and stunning views.
+Evening: Take a guided tour of Mosquee Fatima Zahra, a beautiful mosque with intricate architecture and a rich history. Learn about Islamic culture and admire the stunning interior adorned with intricate designs.
+Night: For a perfect end to your day, return to the Barrage Siliana and unwind with a relaxing evening stroll. Witness the magical sunset over the tranquil waters, creating a breathtaking spectacle to remember.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a restaurant located in siliana, Tunisia, offering a variety of dishes. It is well-rated by customers, with a score of 4.6 out of 5 stars. The restaurant is open during the week, but its exact hours of operation are not specified. It is located at the coordinates (36.0845203, 9.3708318).
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Cafe Panorama is a cafe located in Siliana, Tunisia. It has a rating of 4.0 out of 5 stars on Google and is open from 5:30 AM to midnight. Cafe Panorama is known for its great coffee and friendly staff.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1090,12 +1268,56 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a top-rated cafe, check out Cafe classico located at 39P9+RHJ Cafe classico, Rue Habib Thameur, Siliana. This popular destination is perfect for Cafe lovers and has a rating of 5.0. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+classico/data=!4m7!3m6!1s0x12fc655650871591:0x93756f2a10343642!8m2!3d36.0870798!4d9.3688911!16s%2Fg%2F11hj9z595b!19sChIJkRWHUFZl_BIRQjY0ECpvdZM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 602 073.</t>
+          <t>Cafe classico is a cafe located in Rue Habib Thameur, Siliana. It is a popular spot for locals and tourists alike, offering a variety of coffee drinks, pastries, and sandwiches. The cafe is also known for its friendly staff and cozy atmosphere.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where is Cafe classico located, and what makes it a highly-rated destination for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Barrage Siliana, enjoying its serene ambiance and picturesque setting.
+Mid-Morning: Try local cuisine at 3AM TAWFIK, known for its diverse menu and positive reviews.
+Midday: Visit the highly-rated Tunisian restaurant Ridha lablebi, specializing in traditional dishes like lablebi.
+Afternoon: Relax and enjoy outdoor activities like swimming, fishing, or boating at Oued Siliana.
+Evening: Experience cultural immersion at Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating.
+Night: Enjoy scenic views at the Barrage Siliana, soaking up the peaceful ambiance and breathtaking views.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+3AM TAWFIK is a highly-rated restaurant located in Siliana, Tunisia. It is known for its diverse menu, which includes a range of cuisines from crepes and sandwiches to pizzas and desserts. With a 5.0 rating and positive reviews, it is a popular destination for both locals and tourists alike. Situated at (36.0845203, 9.3708318), it is easily accessible and open from 10:00 AM to midnight.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe Panorama is a cafe located in Siliana, Tunisia. It has a rating of 4.0 out of 5 stars on Google and is open from 5:30 AM to midnight. Cafe Panorama is known for its great coffee and friendly staff.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1189,14 +1411,57 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Ridha lablebi located at 39P9+GR6 Ridha lablebi, Av. de l'Independance, Siliana. 
-This top-rated destination is perfect for Restaurant tunisien lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.086804482197, 9.36899994745. For more details, visit their website</t>
+          <t>Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant tunisien destination with a 5.0 rating in Siliana?</t>
+          <t>Day Plan:
+Morning: Exploring the Barrage Siliana for its serene beauty and picturesque setting.
+Mid-Morning: Trying local cuisine at SAM'S FOOD, known for its excellent ratings and variety of dishes.
+Midday: Visiting the Mosquee Fatima Zahra, a highly-rated mosque with architectural significance.
+Afternoon: Enjoying fishing or boating activities at the Oued Siliana, immersing yourself in the natural beauty of the river.
+Evening: Relaxing at Brooklyn Cooffe with a delightful cup of coffee or tea while enjoying the cozy ambiance.
+Night: Engaging in cultural immersion at the Spiritualist Center of Siliana, exploring its spiritual practices and beliefs.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a restaurant located in siliana, Tunisia, offering a variety of dishes. It is well-rated by customers, with a score of 4.6 out of 5 stars. The restaurant is open during the week, but its exact hours of operation are not specified. It is located at the coordinates (36.0845203, 9.3708318).
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Cafe Ferdawes is a cafe located in siliana, Tunisia. It has a rating of 5.0, and is open during weekdays. The cafe offers a variety of food and drinks, and is a great place to relax and enjoy a meal. The cafe is located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana, and can be contacted at 96 911 560.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1567,56 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out TAHA Coffee located at cite la republique siliana, 6100. This top-rated destination is perfect for Cafe specialise dans les boissons expresso lovers and offers a range of Cafe specialise dans les boissons expresso to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, . To get there, use these GPS coordinates: 35.9624358, 9.1498584. For more details, visit their website at or call them at 40 494 316.</t>
+          <t>TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where in Siliana can you find a highly rated destination that specializes in espresso drinks and is known for its exceptional quality?</t>
+          <t>Day Plan:
+Morning: Explore Oued Siliana (natural watercourse)
+Mid-Morning: Visit Barrage Siliana (reservoir)
+Midday: Try local cuisine at Restaurant lella Beyya
+Afternoon: Take a guided tour of Mosquee Fatima Zahra (mosque)
+Evening: Enjoy scenic views at Barrage Siliana (dam)
+Night: Relax with a traditional Hammam experience at a local spa</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Siliana, Restaurant lella Beyya is a culinary haven that tantalizes taste buds with its exquisite cuisine. Located at coordinates (36.0845203, 9.3708318), this restaurant offers a cozy ambiance and exceptional service.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Daily Dose is a 5-star rated cafe located in Siliana, Tunisia at (36.0845203, 9.3708318)
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1409,14 +1718,56 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Cafe Ferdawes located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. You can get there using the GPS coordinates (36.0845203, 9.3708318). For more details, visit their website or call them at 96 911 560.</t>
+          <t>Café Ferdawes, located at 39H8+VHP, Unnamed Road, Siliana, Tunisia, offers a cozy and welcoming ambiance for coffee lovers. With its convenient location and warm atmosphere, the cafe serves as a perfect spot to unwind and enjoy a cup of freshly brewed coffee.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>What is the must-visit destination in Siliana that offers top-rated Cafe and is located at GPS coordinates (36.0845203, 9.3708318)?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant street markets, showcasing local handicrafts and traditional Tunisian products.
+Mid-Morning: Indulge in the aromatic delights of Cafe Ferdawes, savoring authentic Tunisian cuisine and enjoying the warm ambiance of the cafe.
+Midday: Embark on a guided tour of Barrage Siliana, marveling at the engineering prowess and relishing the serene lakeside views.
+Afternoon: Immerse yourself in the tranquil Oued Siliana, engaging in recreational activities like swimming, fishing, or boating, amidst picturesque surroundings.
+Evening: Delight in a traditional Tunisian dinner at Ridha lablebi, savoring the authentic flavors and hospitable ambiance.
+Night: Experience the vibrant nightlife at TAHA Coffee, indulging in exquisite espresso-based drinks and enjoying the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Fast food The Fifty Five 55 is a restaurant located in Siliana, Tunisia. It offers a variety of food options and is open from 9:00 am to 9:00 pm every day. The restaurant is highly rated by customers, with a 5.0 rating out of 5.0. The coordinates of the restaurant are (35.9624358, 9.1498584).
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe Ferdawes is a cafe located in siliana, Tunisia. It has a rating of 5.0, and is open during weekdays. The cafe offers a variety of food and drinks, and is a great place to relax and enjoy a meal. The cafe is located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana, and can be contacted at 96 911 560.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1522,15 +1873,57 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a top-rated Cafe, Palm Coffe located at 39Q7+FRM Palm Coffe, Siliana is the place for you. 
-This must-visit spot offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. 
-To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/Palm+Coffe/data=!4m7!3m6!1s0x12fc7b0d4148ff77:0xae36f00ae1d3457d!8m2!3d36.0887208!4d9.3645335!16s%2Fg%2F11rr7m0bfd!19sChIJd_9IQQ17_BIRfUXT4QrwNq4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 633 733.</t>
+          <t>Palm Coffe is a Cafe located in siliana, Tunisia at the following coordinates: (36.0845203, 9.3708318) and phone number 28 633 733. This place opens 24h/24 and is highly rated with a rating of 5.0 out of 5 stars, based on 1 reviews.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café in Siliana that offers a wide variety of options?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Oued Siliana, a natural watercourse offering tranquility and relaxation.
+Mid-Morning: Visit the highly-rated Mosquee Fatima Zahra to immerse yourself in the local culture and admire its architectural beauty.
+Midday: Savor the authentic flavors of Tunisian cuisine at Restaurant bb lHwm@. wjdy, known for its delectable culinary experience.
+Afternoon: Take a guided tour of the Barrage Siliana dam, marveling at its serene and picturesque setting amidst the sparkling waters.
+Evening: Enjoy a relaxing evening at TAHA Coffee, a specialized espresso bar offering a cozy atmosphere and highly-rated beverages.
+Night: Experience the lively ambiance and flavors of Cafe 92, a charming cafe offering a diverse menu and traditional Tunisian dishes.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant bb lHwm@. wjdy**
+Nestled at the coordinates (36.0845203, 9.3708318) in the heart of Siliana, Restaurant bb lHwm@. wjdy offers a delectable culinary experience. With its 4.0-star rating, this establishment is frequented by food enthusiasts seeking a satisfying meal. The restaurant operates from 8:30 AM to 10:00 PM, offering a diverse menu that caters to various tastes and preferences.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe 92 is a cozy cafe located in Siliana, Tunisia. It offers a variety of delicious food and drinks in a relaxed and friendly atmosphere. Cafe 92's menu features traditional Tunisian dishes, as well as international favorites. It is close to many popular tourist destinations, such as the Kasbah of Siliana and the Great Mosque of Siliana. It is located at the coordinates (36.0845203, 9.3708318).
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1628,12 +2021,57 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great cafe experience, check out Cafe 92 located at 39QC+7QH, Siliana. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at  or call them at .</t>
+          <t>Cafe 92 is a cozy cafe located in Siliana, Tunisia. It offers a variety of delicious food and drinks in a relaxed and friendly atmosphere. Cafe 92's menu features traditional Tunisian dishes, as well as international favorites. It is close to many popular tourist destinations, such as the Kasbah of Siliana and the Great Mosque of Siliana. It is located at the coordinates (36.0845203, 9.3708318).</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Siliana can you find the highly-rated Cafe 92, renowned for its exceptional cafe experience?</t>
+          <t>Day Plan:
+Morning: Exploring Barrage Siliana
+Mid-Morning: Trying local cuisine at 3AM TAWFIK
+Midday: Visiting Mosquee Fatima Zahra
+Afternoon: Shopping at the local market
+Evening: Enjoying traditional Tunisian music at Cafe Panorama
+Night: Experiencing cultural immersion at the Spiritualist Center</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+3AM TAWFIK is a highly-rated restaurant located in Siliana, Tunisia. It is known for its diverse menu, which includes a range of cuisines from crepes and sandwiches to pizzas and desserts. With a 5.0 rating and positive reviews, it is a popular destination for both locals and tourists alike. Situated at (36.0845203, 9.3708318), it is easily accessible and open from 10:00 AM to midnight.
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Cafe Panorama is a cafe located in Siliana, Tunisia. It offers a variety of food and drinks, and is open from 5:30am to midnight. The cafe is located at 36.0845203, 9.3708318.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1731,12 +2169,57 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Nestled in the heart of Siliana, discover the renowned spiritual center, Siliana. With 7 rave reviews and a rating of 3.9, this hidden gem is perfect for those seeking spiritual guidance and enlightenment. Its precise location can be found at 39Q8+C3H Siliana. For further information, visit their website or reach out to them at their listed coordinates: (36.0845203, 9.3708318).</t>
+          <t>Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find the renowned spiritual center, Siliana, that offers enlightenment and guidance, located at specific coordinates?</t>
+          <t>Day Plan:
+Morning: Explore Barrage Siliana, taking in the scenic beauty of the dam and its surroundings.
+Mid-Morning: Visit Cafe Ferdawes for a relaxed ambiance and delicious breakfast options.
+Midday: Engage in outdoor activities such as fishing or picnicking at Barrage Siliana, enjoying the tranquility and picturesque setting.
+Afternoon: Shop for local crafts and souvenirs at the Siliana market, experiencing the vibrant local culture.
+Evening: Try local cuisine at SAM'S FOOD restaurant, savoring the authentic flavors of Tunisian dishes.
+Night: Visit the highly-rated Mosquee Fatima Zahra, immersing yourself in the spiritual and cultural significance of this religious landmark.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a restaurant located in siliana, Tunisia, offering a variety of dishes. It is well-rated by customers, with a score of 4.6 out of 5 stars. The restaurant is open during the week, but its exact hours of operation are not specified. It is located at the coordinates (36.0845203, 9.3708318).
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Cafe Ferdawes is a cafe located in siliana, Tunisia. It has a rating of 5.0, and is open during weekdays. The cafe offers a variety of food and drinks, and is a great place to relax and enjoy a meal. The cafe is located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana, and can be contacted at 96 911 560.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1834,12 +2317,57 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in siliana, Barrage Siliana is a top-rated destination for Reservoir lovers. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/Barrage+Siliana/data=!4m7!3m6!1s0x12fc7b585ab2272b:0xd71653b8a4f7c9b7!8m2!3d36.1430179!4d9.358984!16s%2Fg%2F1q5bly3mm!19sChIJKyeyWlh7_BIRt8n3pLhTFtc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can I visit a popular destination for Reservoir lovers in Siliana with a rating of 3.8, accessible via specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the Oued Siliana for swimming and fishing.
+Mid-Morning: Visit Barrage Siliana for its serene setting and breathtaking views.
+Midday: Try local cuisine at Ridha Lablebi, a highly-rated Tunisian restaurant.
+Afternoon: Take a guided tour of Mosquee Fatima Zahra, a significant religious landmark.
+Evening: Engage in outdoor activities like hiking or biking in the surrounding area.
+Night: Relax with a traditional massage at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavarotti Pizza is a restaurant located in Siliana, Tunisia. It is open from 10:00 AM to midnight, every day except Sunday. The restaurant offers a variety of pizzas, as well as other Italian dishes. Pavarotti Pizza has a 4.3-star rating on Google, with customers praising the delicious food and friendly service. It is located at Rue Ahmed Ibn Abi Dhiaf and can be contacted at 22 365 444.
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Located in the heart of Siliana, Palm Coffe is a cozy cafe offering a warm and welcoming atmosphere. Our menu features a tantalizing selection of coffee, tea, pastries, and snacks to cater to every taste. Situated at the coordinates (36.0845203, 9.3708318), Palm Coffe is the perfect spot to relax, refuel, and connect with friends and family.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1937,12 +2465,56 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a picturesque natural attraction, head to oued Siliana. This top-rated destination is perfect for Cours d'eau lovers, with a rating of 4.8, making it a must-visit spot. To get there, use these GPS coordinates: 36.55237, 9.41965. For more details, visit the website at https://www.google.com/maps/place/oued+Siliana/data=!4m7!3m6!1s0x12fc8ef8701ac003:0x92d88f052f792d67!8m2!3d36.3529465!4d9.4038463!16s%2Fg%2F1216lb66!19sChIJA8AacPiO_BIRZy15LwWP2JI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Siliana can you find a highly rated, picturesque natural attraction that is perfect for nature enthusiasts, as indicated by its 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore the Oued Siliana by engaging in outdoor activities like swimming, fishing, and boating.
+Mid-Morning: Visit the Barrage Siliana to take in the breathtaking views and serene ambiance.
+Midday: Try local cuisine at Pavarotti Pizza, known for its delicious Italian dishes and friendly service.
+Afternoon: Immerse yourself in cultural immersion at the Mosquee Fatima Zahra, a highly-rated mosque with significant religious and cultural importance.
+Evening: Experience the vibrant atmosphere at the TAHA Coffee cafe, specializing in espresso drinks.
+Night: Enjoy a relaxing evening with a guided tour of Ridha lablebi, a highly-rated Tunisian restaurant offering traditional dishes with a focus on lablebi.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavarotti Pizza is a restaurant located in Siliana, Tunisia. It is open from 10:00 AM to midnight, every day except Sunday. The restaurant offers a variety of pizzas, as well as other Italian dishes. Pavarotti Pizza has a 4.3-star rating on Google, with customers praising the delicious food and friendly service. It is located at Rue Ahmed Ibn Abi Dhiaf and can be contacted at 22 365 444.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe Ferdawes is a cafe located in siliana, Tunisia. It has a rating of 5.0, and is open during weekdays. The cafe offers a variety of food and drinks, and is a great place to relax and enjoy a meal. The cafe is located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana, and can be contacted at 96 911 560.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2040,12 +2612,64 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Barrage Siliana located at 5942+75G Barrage Siliana, Siliana. This top-rated destination is perfect for Barrage lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination with GPS coordinates for Barrage enthusiasts in Siliana?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the scenic Barrage Siliana, offering stunning views and tranquility.
+**Mid-Morning:**
+* Discover the flavors of local cuisine at Restaurant bb lHwm@. wjdy, known for its delectable culinary offerings.
+**Midday:**
+* Visit the highly-rated Mosquee Fatima Zahra, a place of spiritual significance and architectural beauty.
+**Afternoon:**
+* Engage in outdoor activities like swimming, fishing, or boating at the Oued Siliana, a picturesque river offering recreation and relaxation.
+**Evening:**
+* Sample the local cafe culture at Brooklyn Cooffe, serving tea and coffee in a cozy ambiance.
+**Night:**
+* Enjoy the aromatic flavors of espresso-based drinks at TAHA Coffee, a specialized espresso bar with high customer ratings.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant bb lHwm@. wjdy**
+Nestled at the coordinates (36.0845203, 9.3708318) in the heart of Siliana, Restaurant bb lHwm@. wjdy offers a delectable culinary experience. With its 4.0-star rating, this establishment is frequented by food enthusiasts seeking a satisfying meal. The restaurant operates from 8:30 AM to 10:00 PM, offering a diverse menu that caters to various tastes and preferences.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe Panorama is a cafe located in Siliana, Tunisia. It offers a variety of food and drinks, and is open from 5:30am to midnight. The cafe is located at 36.0845203, 9.3708318.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2143,14 +2767,57 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a place of worship, check out Mosquee Fatima Zahra located at 39M4+RR2 Mosquee Fatima Zahra, P4. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of categories to choose from.
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.3290332, 6.6640395. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+Fatima+Zahra/data=!4m7!3m6!1s0x12fc7ab08f8e4b9d:0x717d2f7b56718091!8m2!3d36.0845138!4d9.3570049!16s%2Fg%2F11byp5wbr6!19sChIJnUuOj7B6_BIRkYBxVnsvfXE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where is the top-rated Mosquee Fatima Zahra located, offering a range of categories and attracting Mosquee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the ancient and picturesque town of Siliana, steeped in rich history and cultural heritage.
+Mid-Morning: Visit the highly-rated Mosquee Fatima Zahra, a sacred mosque adorned with intricate architecture and a serene atmosphere.
+Midday: Indulge in the delectable local cuisine at Ridha lablebi, a renowned restaurant known for its authentic Tunisian dishes.
+Afternoon: Head to Barrage Siliana, a tranquil reservoir, and immerse yourself in the beauty of nature, enjoying a leisurely picnic or embarking on a scenic boat ride.
+Evening: Experience cultural immersion at the Spiritualist Center, engaging in discussions about spiritualism and gaining insights into local beliefs and practices.
+Night: Relax and rejuvenate at a charming spa, surrounded by the tranquility of nature, indulging in a revitalizing massage or rejuvenating treatment.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Fast food The Fifty Five 55 is a restaurant located in Siliana, Tunisia. It offers a variety of food options and is open from 9:00 am to 9:00 pm every day. The restaurant is highly rated by customers, with a 5.0 rating out of 5.0. The coordinates of the restaurant are (35.9624358, 9.1498584).
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Cafe 92 is a cozy cafe located in Siliana, Tunisia. It offers a variety of delicious food and drinks in a relaxed and friendly atmosphere. Cafe 92's menu features traditional Tunisian dishes, as well as international favorites. It is close to many popular tourist destinations, such as the Kasbah of Siliana and the Great Mosque of Siliana. It is located at the coordinates (36.0845203, 9.3708318).
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2248,15 +2915,56 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Barrage Siliana located at Barrage Siliana. 
-This top-rated destination is perfect for Reservoir lovers. 
-With a rating of 3.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Which top-rated destination in Siliana is ideal for Reservoir enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Barrage Siliana and enjoy its serene beauty.
+Mid-Morning: Visit the highly-rated mosque, Mosquee Fatima Zahra, for cultural immersion.
+Midday: Savor the diverse culinary offerings at 3AM TAWFIK, a highly-rated restaurant known for its wide menu selection.
+Afternoon: Engage in outdoor activities like fishing at Barrage Siliana.
+Evening: Experience the local cafe culture at Daily Dose, a 5.0-rated cafe offering a relaxing ambiance.
+Night: Enjoy the tranquil ambiance of Oued Siliana, a natural watercourse with stunning scenery, perfect for a peaceful evening stroll.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+3AM TAWFIK is a highly-rated restaurant located in Siliana, Tunisia. It is known for its diverse menu, which includes a range of cuisines from crepes and sandwiches to pizzas and desserts. With a 5.0 rating and positive reviews, it is a popular destination for both locals and tourists alike. Situated at (36.0845203, 9.3708318), it is easily accessible and open from 10:00 AM to midnight.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Daily Dose is a cafe located in Siliana, Tunisia (36.0845203, 9.3708318) with a 5.0 rating based on 3 reviews.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2350,14 +3058,56 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Oued Siliana located at Oued Siliana. 
-This top-rated destination is perfect for Cours d'eau lovers and offers a range of Cours d'eau to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.55237, 9.41965.</t>
+          <t>The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Siliana can you find a top-rated destination for Cours d'eau enthusiasts, renowned for its 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Kasbah of Siliana
+Mid-Morning: Trying local cuisine at SAM'S FOOD
+Midday: Visiting the Great Mosque of Siliana
+Afternoon: Enjoying scenic views at Barrage Siliana
+Evening: Relaxing with a coffee at Brooklyn Coffee
+Night: Participating in an evening prayer at Mosquee Fatima Zahra</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a highly-rated restaurant in Siliana known for its delicious cuisine and friendly service. With a rating of 4.6 out of 5, this establishment has received positive reviews from its patrons, making it a must-visit spot for food lovers.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe 92 is a cozy cafe located in Siliana, Tunisia. It offers a variety of delicious food and drinks in a relaxed and friendly atmosphere. Cafe 92's menu features traditional Tunisian dishes, as well as international favorites. It is close to many popular tourist destinations, such as the Kasbah of Siliana and the Great Mosque of Siliana. It is located at the coordinates (36.0845203, 9.3708318).
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2463,14 +3213,56 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Pavarotti pizza located at Rue Ahmed Ibn Abi Dhiaf. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.086767464468, 9.372935245166. For more details, visit their website at or call them at 22 365 444.</t>
+          <t>Pavarotti Pizza is a restaurant located in Siliana, Tunisia. It is open from 10:00 AM to midnight, every day except Sunday. The restaurant offers a variety of pizzas, as well as other Italian dishes. Pavarotti Pizza has a 4.3-star rating on Google, with customers praising the delicious food and friendly service. It is located at Rue Ahmed Ibn Abi Dhiaf and can be contacted at 22 365 444.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated pizza place in Siliana, open late at night and closed on Sundays?</t>
+          <t>Day Plan:
+Morning: Explore Barrage Siliana and soak in the picturesque dam views.
+Mid-Morning: Try local cuisine at SAM'S FOOD, known for its delicious offerings.
+Midday: Visit Mosquee Fatima Zahra, a highly-rated mosque with serene architecture.
+Afternoon: Enjoy scenic views at Oued Siliana, a natural watercourse with beautiful surroundings.
+Evening: Participate in a guided tour of Siliana, discovering its historical and cultural heritage.
+Night: Immerse in cultural immersion at the Siliana Spiritualist Center, learning about spiritual practices.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a highly-rated restaurant in Siliana known for its delicious cuisine and friendly service. With a rating of 4.6 out of 5, this establishment has received positive reviews from its patrons, making it a must-visit spot for food lovers.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Daily Dose is a cafe located in Siliana, Tunisia (36.0845203, 9.3708318) with a 5.0 rating based on 3 reviews.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2572,12 +3364,63 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in siliana, SAM'S FOOD is a top-rated restaurant located at 39MC+RP5. It's perfect for Restaurant lovers and offers a 4.6 rating. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit the link at https://www.google.com/maps/place/SAM%27S+FOOD/data=!4m7!3m6!1s0x12fc65894c0c4bf1:0x7da64569989c9b91!8m2!3d36.0845055!4d9.3718564!16s%2Fg%2F11kmcrjrrb!19sChIJ8UsMTIll_BIRkZucmGlFpn0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 943 256.</t>
+          <t>SAM'S FOOD is a restaurant located in siliana, Tunisia, offering a variety of dishes. It is well-rated by customers, with a score of 4.6 out of 5 stars. The restaurant is open during the week, but its exact hours of operation are not specified. It is located at the coordinates (36.0845203, 9.3708318).</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where is the top-rated restaurant in siliana, known for its excellent food and 4.6 rating?</t>
+          <t>Day Plan:
+**Morning**:
+* Explore the spiritual center of Siliana at Spiritualist Center Siliana for a serene experience.
+**Mid-Morning**:
+* Savor the exquisite cuisine of traditional Tunisian dishes at highly-rated Ridha lablebi.
+**Midday**:
+* Visit the Barrage Siliana dam for breathtaking views and a tranquil ambiance.
+**Afternoon**:
+* Indulge in the aroma and flavors of coffee and pastries at the cozy Brooklyn Cooffe.
+**Evening**:
+* Immerse in the scenic beauty of Oued Siliana, offering a tranquil escape and relaxation.
+**Night**:
+* Experience cultural immersion at the highly-rated Mosquee Fatima Zahra, a significant landmark.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Siliana, Restaurant lella Beyya is a culinary haven that tantalizes taste buds with its exquisite cuisine. Located at coordinates (36.0845203, 9.3708318), this restaurant offers a cozy ambiance and exceptional service.
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Daily Dose is a cafe located in Siliana, Tunisia (36.0845203, 9.3708318) with a 5.0 rating based on 3 reviews.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2683,12 +3526,57 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out 3AM TAWFIK located at 39P9+HFG 3AM TAWFIK, Siliana. This top-rated destination is perfect for Restaurant lovers and offers a range of categories including Restaurant, Creperie, Cremerie, Consultant en agroalimentaire, Pizzeria and Sandwicherie to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.facebook.com/libanais.chaim%3Fmibextid%3DZbWKwL.</t>
+          <t>3AM TAWFIK is a highly-rated restaurant located in Siliana, Tunisia. It is known for its diverse menu, which includes a range of cuisines from crepes and sandwiches to pizzas and desserts. With a 5.0 rating and positive reviews, it is a popular destination for both locals and tourists alike. Situated at (36.0845203, 9.3708318), it is easily accessible and open from 10:00 AM to midnight.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where in Siliana can you find a highly-rated restaurant that offers a wide range of culinary options?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Barrage Siliana and immerse yourself in its tranquility.
+Mid-Morning: Visit Mosquee Fatima Zahra, renowned for its architectural beauty and spiritual significance.
+Midday: Savor authentic Tunisian cuisine at Ridha lablebi, a 5.0-rated restaurant specializing in lablebi.
+Afternoon: Engage in outdoor activities like swimming or fishing at the Oued Siliana, enjoying the scenic beauty and fresh air.
+Evening: Relax with a delightful cup of coffee and pastries at Brooklyn Cooffe, known for its cozy ambiance and delicious menu.
+Night: Experience cultural immersion by participating in a traditional Tunisian music performance or Henna painting activity at a local cultural center or event space.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a highly-rated restaurant in Siliana known for its delicious cuisine and friendly service. With a rating of 4.6 out of 5, this establishment has received positive reviews from its patrons, making it a must-visit spot for food lovers.
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Café Ferdawes, located at 39H8+VHP, Unnamed Road, Siliana, Tunisia, offers a cozy and welcoming ambiance for coffee lovers. With its convenient location and warm atmosphere, the cafe serves as a perfect spot to unwind and enjoy a cup of freshly brewed coffee.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2794,16 +3682,57 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a delicious meal, check out Restaurant lella Beyya, located at 39PC+V22 Restaurant lella Beyya, Siliana. 
-This top-rated restaurant is perfect for foodies. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on [] 
-To get there, use these GPS coordinates: 36.0845203, 9.3708318. 
-For more details, visit their website at nan or call them at 96 244 070.</t>
+          <t>Nestled in the heart of Siliana, Restaurant lella Beyya is a culinary haven that tantalizes taste buds with its exquisite cuisine. Located at coordinates (36.0845203, 9.3708318), this restaurant offers a cozy ambiance and exceptional service.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with 4.0 stars in Siliana that offers delectable dining experiences?</t>
+          <t>Day Plan:
+Morning: Explore Barrage Siliana for its picturesque setting and peaceful ambiance.
+Mid-Morning: Visit Ridha lablebi for a traditional Tunisian dining experience.
+Midday: Take a leisurely walk along the Oued Siliana, enjoying the natural beauty and outdoor activities.
+Afternoon: Visit the Brooklyn Cooffe for a cozy ambiance and delightful coffee experience.
+Evening: Engage in cultural immersion at Mosquee Fatima Zahra, appreciating its architectural significance and religious atmosphere.
+Night: Indulge in local cuisine at Fast food The Fifty Five 55, known for its variety of food options and excellent ratings.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Fast food The Fifty Five 55 is a restaurant located in Siliana, Tunisia. It offers a variety of food options and is open from 9:00 am to 9:00 pm every day. The restaurant is highly rated by customers, with a 5.0 rating out of 5.0. The coordinates of the restaurant are (35.9624358, 9.1498584).
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Daily Dose is a cafe located in Siliana, Tunisia (36.0845203, 9.3708318) with a 5.0 rating based on 3 reviews.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2901,12 +3830,56 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out mT`m lnkhl@ located at 39P9+MQ6 mT`m lnkhl@, Siliana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 36.0845203, 9.3708318.</t>
+          <t>mT`m lnkhl@ is a restaurant located in Siliana, Tunisia. It is open daily from 08:00 am to 10:00 am, except on Sundays. The restaurant has received 4.0 ratings from its customers. It offers a variety of dishes and has a friendly atmosphere. The coordinates of the restaurant are (36.0845203, 9.3708318).</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated restaurant destination in Siliana, located at 39P9+MQ6 with a 4.0 rating, perfect for restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Visit Palm Coffe for a delicious breakfast and savor the warm ambiance while sipping on aromatic coffee.
+Mid-Morning: Explore Siliana by visiting Barrage Siliana, a picturesque dam offering stunning views and a serene atmosphere. Take a leisurely walk along the reservoir and immerse yourself in the tranquility of nature.
+Midday: Indulge in authentic Tunisian cuisine at Ridha lablebi, highly acclaimed for its traditional lablebi dishes. Enjoy the flavorsome delicacies while experiencing the local culinary traditions.
+Afternoon: Head to Oued Siliana, a beautiful natural watercourse with breathtaking scenery. Embark on a relaxing walk or picnic amidst the tranquil surroundings, absorbing the beauty of the river's natural allure.
+Evening: Experience the vibrant local culture at Mosquee Fatima Zahra, a highly-rated mosque, and delve into the town's spiritual heritage. Admire the architectural beauty of the mosque and engage with the locals for a deeper cultural immersion.
+Night: Unwind at TAHA Coffee, a cozy cafe specializing in espresso drinks and open 24 hours a day. Sip on a warm beverage and relish the comforting atmosphere, providing a perfect end to your day in Siliana.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Fast food The Fifty Five 55 is a restaurant located in Siliana, Tunisia. It offers a variety of food options and is open from 9:00 am to 9:00 pm every day. The restaurant is highly rated by customers, with a 5.0 rating out of 5.0. The coordinates of the restaurant are (35.9624358, 9.1498584).
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Located in the heart of Siliana, Palm Coffe is a cozy cafe offering a warm and welcoming atmosphere. Our menu features a tantalizing selection of coffee, tea, pastries, and snacks to cater to every taste. Situated at the coordinates (36.0845203, 9.3708318), Palm Coffe is the perfect spot to relax, refuel, and connect with friends and family.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3008,14 +3981,56 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a relaxing spot, check out Brooklyn Cooffe located at 39P8+35J Brooklyn Cooffe, Siliana. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the and Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, call them at 98 205 001.</t>
+          <t>Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where in Siliana can travelers indulge in a relaxing Salon de Thé experience with highly-rated options of Salon de Thé and Café?</t>
+          <t>Day Plan:
+Morning: Explore Barrage Siliana, taking in its serene beauty and picturesque setting by the sparkling waters.
+Mid-Morning: Visit Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating.
+Midday: Try local cuisine at SAM'S FOOD, a well-rated restaurant offering a variety of dishes.
+Afternoon: Enjoy outdoor activities at Oued Siliana, including swimming, fishing, and boating.
+Evening: Relax with a coffee at Brooklyn Coffee, an establishment with a 4.0-star rating.
+Night: Participate in an evening event or activity at Siliana Spiritualist Center, focused on Spiritualism.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a restaurant located in siliana, Tunisia, offering a variety of dishes. It is well-rated by customers, with a score of 4.6 out of 5 stars. The restaurant is open during the week, but its exact hours of operation are not specified. It is located at the coordinates (36.0845203, 9.3708318).
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Daily Dose is a 5-star rated cafe located in Siliana, Tunisia at (36.0845203, 9.3708318)
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3121,14 +4136,58 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out bb lHwm@. wjdy located at 39QC+65R bb lHwm@. wjdy, Unnamed Road, Siliana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:30-22:00, but closed on []. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/%D8%A8%D8%A7%D8%A8+%D8%A7%D9%84%D8%AD%D9%88%D9%85%D8%A9.+%D9%88%D8%AC%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fc655adb5dd921:0xe368c7edc8238bc9!8m2!3d36.0881195!4d9.3704038!16s%2Fg%2F11gw13cwt0!19sChIJIdld21pl_BIRyYsjyO3HaOM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 593 513.</t>
+          <t>**Restaurant bb lHwm@. wjdy**
+Nestled at the coordinates (36.0845203, 9.3708318) in the heart of Siliana, Restaurant bb lHwm@. wjdy offers a delectable culinary experience. With its 4.0-star rating, this establishment is frequented by food enthusiasts seeking a satisfying meal. The restaurant operates from 8:30 AM to 10:00 PM, offering a diverse menu that caters to various tastes and preferences.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where in Siliana can you find a highly rated restaurant destination with a wide selection of options, perfect for those who enjoy dining out?</t>
+          <t>Day Plan:
+Morning: Explore the historic town of Siliana, visiting landmarks like the Barrage Siliana reservoir and Mosquee Fatima Zahra.
+Mid-Morning: Try local cuisine at SAM'S FOOD restaurant, known for its traditional Tunisian dishes.
+Midday: Visit the Oued Siliana natural watercourse for a refreshing break and enjoy the beautiful scenery.
+Afternoon: Take a guided tour of the Ridha lablebi restaurant to learn about Tunisian cuisine and its history.
+Evening: Shop for local handicrafts and souvenirs at the vibrant market in the heart of Siliana.
+Night: Relax with a traditional hammam experience at a local spa or hotel, followed by a delightful dinner at Cafe classico, known for its cozy ambiance and delicious coffee.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a restaurant located in siliana, Tunisia, offering a variety of dishes. It is well-rated by customers, with a score of 4.6 out of 5 stars. The restaurant is open during the week, but its exact hours of operation are not specified. It is located at the coordinates (36.0845203, 9.3708318).
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Cafe classico is a cafe located in Rue Habib Thameur, Siliana. It is a popular spot for locals and tourists alike, offering a variety of coffee drinks, pastries, and sandwiches. The cafe is also known for its friendly staff and cozy atmosphere.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3226,12 +4285,57 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in siliana, Daily Dose is a top-rated Cafe located at 39M3+PJ4 Daily Dose, Siliana, offering a range of Cafe options. With a rating of 5.0, it's a must-visit spot.</t>
+          <t>Daily Dose is a 5-star rated cafe located in Siliana, Tunisia at (36.0845203, 9.3708318)</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Siliana can you find a highly-rated Cafe with a rating of 5.0, offering a variety of options?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Kasbah of Siliana
+Mid-Morning: Trying local cuisine at Pavarotti Pizza
+Midday: Visiting the Great Mosque of Siliana
+Afternoon: Enjoying scenic views at Oued Siliana
+Evening: Participating in a traditional Tunisian music and dance performance at Cafe 92
+Night: Relaxing with a hammam experience at the Hammam Essalama</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavarotti Pizza is a restaurant located in Siliana, Tunisia. It is open from 10:00 AM to midnight, every day except Sunday. The restaurant offers a variety of pizzas, as well as other Italian dishes. Pavarotti Pizza has a 4.3-star rating on Google, with customers praising the delicious food and friendly service. It is located at Rue Ahmed Ibn Abi Dhiaf and can be contacted at 22 365 444.
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Cafe 92 is a cozy cafe located in Siliana, Tunisia. It offers a variety of delicious food and drinks in a relaxed and friendly atmosphere. Cafe 92's menu features traditional Tunisian dishes, as well as international favorites. It is close to many popular tourist destinations, such as the Kasbah of Siliana and the Great Mosque of Siliana. It is located at the coordinates (36.0845203, 9.3708318).
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3329,12 +4433,56 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Cafe Panorama located at 39P8+22C Cafe Panorama, P4, Siliana. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-00:00, but closed on []. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Panorama is a cafe located in Siliana, Tunisia. It offers a variety of food and drinks, and is open from 5:30am to midnight. The cafe is located at 36.0845203, 9.3708318.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated cafe with a diverse menu and convenient location in Siliana?</t>
+          <t>Day Plan:
+Morning: Visit the spiritualist center to explore the fascinating world of spirituality.
+Mid-Morning: Explore the Barrage Siliana, taking in its scenic beauty and enjoy a peaceful picnic by the reservoir.
+Midday: Head to mT`m lnkhl@ for authentic Tunisian cuisine and savor the flavors of the region.
+Afternoon: Take a guided tour of the beautiful Mosquee Fatima Zahra and admire its intricate architecture.
+Evening: Engage in outdoor activities by exploring the Oued Siliana. Go swimming, fishing, or boating, and soak up the natural beauty.
+Night: Experience cultural immersion by visiting the traditional market. Shop for local goods and interact with the friendly locals.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lnkhl@ is a restaurant located in Siliana, Tunisia. It is open daily from 08:00 am to 10:00 am, except on Sundays. The restaurant has received 4.0 ratings from its customers. It offers a variety of dishes and has a friendly atmosphere. The coordinates of the restaurant are (36.0845203, 9.3708318).
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe 92 is a cozy cafe located in Siliana, Tunisia. It offers a variety of delicious food and drinks in a relaxed and friendly atmosphere. Cafe 92's menu features traditional Tunisian dishes, as well as international favorites. It is close to many popular tourist destinations, such as the Kasbah of Siliana and the Great Mosque of Siliana. It is located at the coordinates (36.0845203, 9.3708318).
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3428,14 +4576,57 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Ridha lablebi located at 39P9+GR6 Av. de l'Independance, Siliana. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.086804482197, 9.36899994745. For more details, visit their website at https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant tunisien destination in Siliana with GPS coordinates 36.086804482197, 9.36899994745?</t>
+          <t>Day Plan:
+Morning: Visit the serene Barrage Siliana to soak in the tranquility of nature and take in the scenic views.
+Mid-Morning: Take a leisurely stroll through the quaint streets of Siliana, exploring the local markets, and experiencing the vibrant atmosphere of the town.
+Midday: Indulge in authentic Tunisian cuisine at Ridha lablebi, a highly-rated restaurant known for its traditional dishes.
+Afternoon: Immerse yourself in cultural heritage by discovering the historic Mosquee Fatima Zahra, a stunning mosque with intricate architecture and spiritual significance.
+Evening: Enjoy a delightful dinner at Brooklyn Cooffe, a cozy cafe serving delectable coffee, tea, and pastries in a warm and inviting ambiance.
+Night: Relish the captivating ambiance of Barrage Siliana once again, taking in the illuminated dam and reveling in the tranquility of the evening amidst the captivating natural surroundings.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Fast food The Fifty Five 55 is a restaurant located in Siliana, Tunisia. It offers a variety of food options and is open from 9:00 am to 9:00 pm every day. The restaurant is highly rated by customers, with a 5.0 rating out of 5.0. The coordinates of the restaurant are (35.9624358, 9.1498584).
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Palm Coffe is a Cafe located in siliana, Tunisia at the following coordinates: (36.0845203, 9.3708318) and phone number 28 633 733. This place opens 24h/24 and is highly rated with a rating of 5.0 out of 5 stars, based on 1 reviews.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3537,12 +4728,57 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in Siliana and looking for a lovely café experience, head over to Café Classico at 39P9+RHJ Rue Habib Thameur. With a perfect 5.0 rating, it's a top-rated destination for café enthusiasts. Their phone number is 28 602 073.</t>
+          <t>Cafe Classico is a cafe located in Siliana, Tunisia at the coordinates (36.0845203, 9.3708318). It has a rating of 5.0 and is categorized as a cafe. With a phone number of 28 602 073, it offers a variety of cafe offerings.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>What is the name and address of the highly-rated café located in Siliana, known for its exceptional coffee experience?</t>
+          <t>Day Plan:
+Morning: Exploring Siliana's Spiritual Side at Siliana Spiritualist Center
+Mid-Morning: Trying Local Cuisine at the Highly-Rated "Ridha lablebi"
+Midday: Visiting the Majestic Barrage Siliana Dam for Panoramic Views
+Afternoon: Shopping for Souvenirs at the Local Market
+Evening: Enjoying a Traditional Tunisian Dinner at "mT`m lnkhl@" Restaurant
+Night: Stargazing at Barrage Siliana, Immersed in Nature's Tranquility</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lnkhl@ is a restaurant located in Siliana, Tunisia. It is open daily from 08:00 am to 10:00 am, except on Sundays. The restaurant has received 4.0 ratings from its customers. It offers a variety of dishes and has a friendly atmosphere. The coordinates of the restaurant are (36.0845203, 9.3708318).
+**Brooklyn Cooffe**
+Brooklyn Cooffe is a cozy cafe located in Siliana, offering a tranquil ambiance for coffee lovers and tea enthusiasts alike. It boasts a warm and inviting space with a delightful menu of coffee, tea, and pastries. Located at longitude 9.3708318 and latitude 36.0845203, Brooklyn Cooffe is easily accessible and offers a convenient spot to relax and sip on expertly brewed beverages.
+Café Ferdawes, located at 39H8+VHP, Unnamed Road, Siliana, Tunisia, offers a cozy and welcoming ambiance for coffee lovers. With its convenient location and warm atmosphere, the cafe serves as a perfect spot to unwind and enjoy a cup of freshly brewed coffee.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+The Oued Siliana is a river located in siliana. It offers various activities such as swimming, fishing, and boating. The river is also a popular spot for picnics and camping. The Oued Siliana is a great place to relax and enjoy the outdoors. It is easily accessible by car and is located just a short drive from the city center.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3640,12 +4876,56 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in Siliana and looking for a great dining experience, check out EL FIRMA GRILL EXPRESS located at 6100 Rue 18 Janvier. This top-rated restaurant offers a range of delicious dishes to choose from. With a rating of 5.0 out of 5, it's a must-visit spot. Visit their website at https://www.google.com/maps/place/EL+FIRMA+GRILL+EXPRESS/data=!4m7!3m6!1s0x12fc6589c1a68d29:0xcc60195a9f4e79af!8m2!3d36.0861873!4d9.3707989!16s%2Fg%2F11vdrkqlsx!19sChIJKY2mwYll_BIRr3lOn1oZYMw?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>EL FIRMA GRILL EXPRESS is a restaurant located at EL FIRMA GRILL EXPRESS, 6100 Rue 18 Janvier in the city of Siliana. Its coordinates are (35.9624358, 9.1498584).</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find highly rated restaurant EL FIRMA GRILL EXPRESS known for its range of dishes in Siliana?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful **Oued Siliana**.
+Mid-Morning: Enjoy the delicious cuisine at **SAM'S FOOD**.
+Midday: Visit the historic **Ridha lablebi**.
+Afternoon: Take a guided tour of **Barrage Siliana**.
+Evening: Relax with a cup of coffee at **Brooklyn Cooffe**.
+Night: Experience the local culture at **Mosquee Fatima Zahra**.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a highly-rated restaurant in Siliana known for its delicious cuisine and friendly service. With a rating of 4.6 out of 5, this establishment has received positive reviews from its patrons, making it a must-visit spot for food lovers.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe Classico is a cafe located in Siliana, Tunisia at the coordinates (36.0845203, 9.3708318). It has a rating of 5.0 and is categorized as a cafe. With a phone number of 28 602 073, it offers a variety of cafe offerings.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3751,12 +5031,56 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in Siliana and looking for somewhere to eat, head to Fast Food The Fifty Five 55, located at Fast food The Fifty Five 55, Siliana 6100. This top-rated restaurant is perfect for Restaurant enthusiasts and serves a range of Restaurant options. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-21:00. To get there, use these GPS coordinates: 35.9624358, 9.1498584. For more details, call them at 29 190 787.</t>
+          <t>Fast food The Fifty Five 55 is a restaurant located in Siliana, Tunisia. It offers a variety of food options and is open from 9:00 am to 9:00 pm every day. The restaurant is highly rated by customers, with a 5.0 rating out of 5.0. The coordinates of the restaurant are (35.9624358, 9.1498584).</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in Siliana can you find a highly rated restaurant perfect for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Barrage Siliana and immerse in its peaceful ambiance.
+Mid-Morning: Visit **Ridha lablebi** and savor authentic Tunisian cuisine.
+Midday: Take a guided tour of Mosquee Fatima Zahra and learn about its cultural and architectural significance.
+Afternoon: Experience cultural immersion at Cafe Ferdawes, enjoying local delicacies and soaking in the vibrant atmosphere.
+Evening: Enjoy scenic views and outdoor activities at Oued Siliana, admiring its natural beauty.
+Night: Relax with a traditional hammam experience at a nearby spa or hotel, rejuvenating after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Fast food The Fifty Five 55 is a restaurant located in Siliana, Tunisia. It offers a variety of food options and is open from 9:00 am to 9:00 pm every day. The restaurant is highly rated by customers, with a 5.0 rating out of 5.0. The coordinates of the restaurant are (35.9624358, 9.1498584).
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe Ferdawes is a cafe located in siliana, Tunisia. It has a rating of 5.0, and is open during weekdays. The cafe offers a variety of food and drinks, and is a great place to relax and enjoy a meal. The cafe is located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana, and can be contacted at 96 911 560.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3862,13 +5186,56 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>In **siliana**, a must-visit spot for **Cafe specialise dans les boissons expresso** enthusiasts is **TAHA Coffee**, located at **cite la republique siliana, 6100**. 
-This top-rated destination boasts a 5.0 rating and is open 24 hours a day. For more info, visit their website or call them at **40 494 316**.</t>
+          <t>TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated café specializing in espresso drinks in Siliana, open around the clock?</t>
+          <t>Day Plan:
+Morning: Explore the historical Kasbah of Siliana, a fortified citadel showcasing the town's rich heritage.
+Mid-Morning: Indulge in the authentic flavors of Tunisia at Pavarotti Pizza, savoring delicious pizzas and traditional Italian dishes.
+Midday: Visit the Great Mosque of Siliana, an architectural masterpiece known for its intricate details and historical significance.
+Afternoon: Immerse yourself in the natural beauty of Oued Siliana, a scenic watercourse offering tranquility and opportunities for relaxation.
+Evening: Enjoy a delightful dinner at Cafe 92, sampling a variety of traditional Tunisian and international culinary delights.
+Night: Experience the vibrant atmosphere of TAHA Coffee, a popular cafe known for its exceptional espresso drinks and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pavarotti Pizza is a restaurant located in Siliana, Tunisia. It is open from 10:00 AM to midnight, every day except Sunday. The restaurant offers a variety of pizzas, as well as other Italian dishes. Pavarotti Pizza has a 4.3-star rating on Google, with customers praising the delicious food and friendly service. It is located at Rue Ahmed Ibn Abi Dhiaf and can be contacted at 22 365 444.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe 92 is a cozy cafe located in Siliana, Tunisia. It offers a variety of delicious food and drinks in a relaxed and friendly atmosphere. Cafe 92's menu features traditional Tunisian dishes, as well as international favorites. It is close to many popular tourist destinations, such as the Kasbah of Siliana and the Great Mosque of Siliana. It is located at the coordinates (36.0845203, 9.3708318).
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a cafe located in siliana, Tunisia. The cafe is open 24 hours a day and specializes in espresso drinks. TAHA Coffee has a rating of 5.0 out of 5 on Google Maps and is located at the coordinates (35.9624358, 9.1498584).
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3974,14 +5341,56 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for something fun to do, check out Palm Coffe located at 39Q7+FRM Palm Coffe, Siliana. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.0845203, 9.3708318. For more details, visit their website at https://www.google.com/maps/place/Palm+Coffe/data=!4m7!3m6!1s0x12fc7b0d4148ff77:0xae36f00ae1d3457d!8m2!3d36.0887208!4d9.3645335!16s%2Fg%2F11rr7m0bfd!19sChIJd_9IQQ17_BIRfUXT4QrwNq4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 633 733.</t>
+          <t>Located in the heart of Siliana, Palm Coffe is a cozy cafe offering a warm and welcoming atmosphere. Our menu features a tantalizing selection of coffee, tea, pastries, and snacks to cater to every taste. Situated at the coordinates (36.0845203, 9.3708318), Palm Coffe is the perfect spot to relax, refuel, and connect with friends and family.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Siliana can you find a top-rated destination with a 5.0 rating, known for its Cafe offerings and open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Visit Mosquee Fatima Zahra for spiritual enlightenment.
+Mid-Morning: Explore the scenic views at Barrage Siliana and capture breathtaking photos.
+Midday: Delight in the authentic flavors of Tunisian cuisine at Ridha lablebi, renowned for its traditional dishes.
+Afternoon: Immerse in the cultural heritage at the Spiritualist Center.
+Evening: Savor a cup of aromatic coffee at TAHA Coffee, while engaging in local interactions.
+Night: Unwind and relax at your hotel or a local spa, rejuvenating for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+SAM'S FOOD is a restaurant located in siliana, Tunisia, offering a variety of dishes. It is well-rated by customers, with a score of 4.6 out of 5 stars. The restaurant is open during the week, but its exact hours of operation are not specified. It is located at the coordinates (36.0845203, 9.3708318).
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe Panorama is a cafe located in Siliana, Tunisia. It has a rating of 4.0 out of 5 stars on Google and is open from 5:30 AM to midnight. Cafe Panorama is known for its great coffee and friendly staff.
+**Ridha lablebi** is a highly-rated (5.0/5) Tunisian restaurant located in Siliana, Tunisia. It offers a wide range of traditional Tunisian dishes, with a focus on lablebi. The restaurant is situated at the coordinates (36.086804482197, 9.36899994745) and can be easily found on Google Maps.
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located near Siliana in Tunisia. It is a popular spot for fishing and picnicking. The reservoir is home to a variety of fish, including bass, catfish, and perch. It is also a popular spot for birdwatching, as it is home to a variety of waterfowl and other bird species. The reservoir is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4083,12 +5492,56 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in siliana and looking for a great cafe, check out Cafe Ferdawes located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. You can contact them at 96 911 560 for more details.</t>
+          <t>Cafe Ferdawes is a cafe located in siliana, Tunisia. It has a rating of 5.0, and is open during weekdays. The cafe offers a variety of food and drinks, and is a great place to relax and enjoy a meal. The cafe is located at 39H8+VHP Cafe Ferdawes, Unnamed Road, Siliana, and can be contacted at 96 911 560.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Question: Where in Siliana can you find a top-rated cafe with a 5.0 rating and a diverse cafe menu?</t>
+          <t>Day Plan:
+Morning: Explore the historic and spiritual landmarks of Siliana by visiting the highly-rated Mosquee Fatima Zahra.
+Mid-Morning: Immerse yourself in the local flavors of Siliana by trying the diverse menu at the highly-rated restaurant 3AM TAWFIK.
+Midday: Take a refreshing break at Oued Siliana, a natural watercourse boasting stunning scenery and tranquility.
+Afternoon: Enjoy the vibrant ambiance of Rue Habib Thameur by exploring the popular Cafe Classico for a delightful coffee experience.
+Evening: Experience the authentic flavors of Tunisian cuisine at the renowned Ridha Lablebi restaurant.
+Night: Relax and unwind at the highly-rated TAHA Coffee, offering a cozy atmosphere and exceptional espresso-based drinks.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+3AM TAWFIK is a highly-rated restaurant located in Siliana, Tunisia. It is known for its diverse menu, which includes a range of cuisines from crepes and sandwiches to pizzas and desserts. With a 5.0 rating and positive reviews, it is a popular destination for both locals and tourists alike. Situated at (36.0845203, 9.3708318), it is easily accessible and open from 10:00 AM to midnight.
+Situated in Siliana at coordinates (36.0845203, 9.3708318), Brooklyn Cooffe is an establishment with a 4.0-star rating offering tea room and cafe services.
+Cafe classico is a cafe located in Rue Habib Thameur, Siliana. It is a popular spot for locals and tourists alike, offering a variety of coffee drinks, pastries, and sandwiches. The cafe is also known for its friendly staff and cozy atmosphere.
+Ridha lablebi is a Tunisian restaurant located in Siliana, in the Siliana region of Tunisia. It is owned by its proprietor, whose name is Ridha lablebi, and who has 2 reviews, each describing the services offered. The restaurant offers a wide variety of Tunisian dishes, and is open for business during the week. It is located at the coordinates (36.086804482197, 9.36899994745), and can be found at the following link: https://www.google.com/maps/place/Ridha+lablebi/data=!4m7!3m6!1s0x12fc659a74b8f95b:0x3ee0e700bf88c992!8m2!3d36.0862949!4d9.36952!16s%2Fg%2F11klrv53zt!19sChIJW_m4dJpl_BIRksmIvwDn4D4?authuser=0&amp;hl=fr&amp;rclk=1 - feel free to check it out!
+TAHA Coffee is a specialized espresso bar located in Siliana, Tunisia. It offers a variety of espresso-based drinks and is open 24 hours a day. The cafe is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Siliana is a Spiritualist Center located in Siliana, Tunisia. Focused on Spiritualism, it has received 7 reviews and has a rating of 3.9. Unfortunately, detailed information such as a description, website, contact information, and opening hours are not available.
+Barrage Siliana is a reservoir located in Siliana, Tunisia. It is a popular spot for fishing and offers stunning views of the surrounding area. It also supports the local community by providing water for irrigation and flood control. The reservoir is easily accessible by road and is a great place to spend a day enjoying the outdoors. It is located at coordinates (36.0845203, 9.3708318).
+Oued Siliana is a natural watercourse located in Siliana, Tunisia. It boasts a longitude of 9.41965 and a latitude of 36.55237. The river is highly acclaimed by visitors, having garnered an impressive rating of 4.8. With its beautiful natural scenery, it offers a tranquil escape and is a perfect spot for relaxation and rejuvenation.
+**Barrage Siliana**
+Located in the charming town of Siliana, Tunisia, Barrage Siliana boasts a serene and picturesque setting by the sparkling waters of the Siliana Dam. With its peaceful ambiance and breathtaking views, this dam offers an idyllic escape from the hustle and bustle of everyday life. Visitors can immerse themselves in the tranquil beauty of the surroundings, soak up the warm Tunisian sunshine, and enjoy the tranquility of nature. The dam is nestled amidst a verdant landscape, promising a serene and rejuvenating experience for all who visit.
+Mosquee Fatima Zahra, a highly-rated mosque with a 4.5-star rating out of 11 reviews, is conveniently located in Siliana, Tunisia at the coordinates (36.3290332, 6.6640395).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
